--- a/PANAMÁ/Género/Datos mujer Unicef 2017 Panamá.xlsx
+++ b/PANAMÁ/Género/Datos mujer Unicef 2017 Panamá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F0DD4-15DD-42B9-9F02-689E514B1DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD31C6F-02F5-4F2B-B3D0-0C2C4BF22B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C02BFD1-9736-4D22-8B47-100FDC63AB98}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t xml:space="preserve">
 Esperanza de vida: mujeres como % de hombres 2016</t>
@@ -492,76 +492,88 @@
     <t>Esperanza de vida:</t>
   </si>
   <si>
-    <t>Esperanza de vida: mujeres como % de hombres 2016</t>
-  </si>
-  <si>
     <t>Tasa de alfabetización de adultos:</t>
   </si>
   <si>
-    <t>mujeres como % de hombres  2011–2016*</t>
-  </si>
-  <si>
     <t>Ratios de matrícula:</t>
   </si>
   <si>
-    <t>mujeres como % de hombres: Tasa bruta de matriculación primaria 2011–2016*</t>
-  </si>
-  <si>
-    <t>mujeres como % de hombres: Tasa bruta de matriculación secundaria 2011–2016*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tasa de supervivencia hasta el último grado de primaria: </t>
   </si>
   <si>
-    <t>mujeres como% de hombres 2011–2016*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demanda de planificación familiar satisfecha </t>
   </si>
   <si>
-    <t>con métodos modernos (%) 2011–2016*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuidado prenatal (%): </t>
   </si>
   <si>
-    <t xml:space="preserve"> Al menos una visita 2011-2016*</t>
-  </si>
-  <si>
-    <t>Al menos cuatro visitas 2011-2016*</t>
-  </si>
-  <si>
     <t>Atención al parto (%):</t>
   </si>
   <si>
-    <t>Parto en institución 2011-2016*</t>
-  </si>
-  <si>
-    <t>Cesárea 2011-2016*</t>
-  </si>
-  <si>
-    <t>Asistente de parto calificado 2013-2016*</t>
-  </si>
-  <si>
     <t>Control de salud posparto (%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> + para recién nacidos 2011-2016*</t>
-  </si>
-  <si>
-    <t>+ para madres 2011-2016*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Razón de mortalidad materna † </t>
   </si>
   <si>
-    <t xml:space="preserve"> Reportados 2011-2016*</t>
-  </si>
-  <si>
-    <t>Ajustados 2015</t>
-  </si>
-  <si>
-    <t>Riesgo de por vida de muerte materna (1 en :) 2015</t>
+    <t>Sub Categoría</t>
+  </si>
+  <si>
+    <t>Sub Variable</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>mujeres como % de hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2011–2016*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2013–2016*</t>
+  </si>
+  <si>
+    <t>Tasa bruta de matriculación</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>Secundaria</t>
+  </si>
+  <si>
+    <t>con métodos modernos (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al menos una visita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al menos cuatro visitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistente de parto calificado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parto en institución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesárea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + para recién nacidos</t>
+  </si>
+  <si>
+    <t>+ para madres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reportados</t>
+  </si>
+  <si>
+    <t>Ajustados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riesgo de por vida de muerte materna (1 en :) </t>
   </si>
 </sst>
 </file>
@@ -649,7 +661,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -696,6 +708,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,7 +716,11 @@
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{19894484-6388-410D-BAB3-6DE36060FB71}"/>
     <cellStyle name="Normal 7" xfId="3" xr:uid="{B7DBEA39-74B5-4626-9DE3-A5AAEB234DBB}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -717,11 +734,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DE6122E-59E6-4C0A-9DE5-E70F976857FF}" name="Tabla1" displayName="Tabla1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{0FE6C47E-A4AA-471B-A651-46FD109D6DDA}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DE6122E-59E6-4C0A-9DE5-E70F976857FF}" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{0FE6C47E-A4AA-471B-A651-46FD109D6DDA}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DA31ADE4-4227-4449-9AAA-1C1B46A4B902}" name="Categoría"/>
-    <tableColumn id="2" xr3:uid="{F46876B9-A105-42BA-A172-BA850DFA63A5}" name="Variable"/>
+    <tableColumn id="4" xr3:uid="{6D9B6CF7-1508-4E96-9F6F-F84DDBC6F671}" name="Sub Categoría"/>
+    <tableColumn id="2" xr3:uid="{F46876B9-A105-42BA-A172-BA850DFA63A5}" name="Variable" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{09447A5E-4197-446D-AB23-01A76BBA9C3E}" name="Sub Variable"/>
+    <tableColumn id="6" xr3:uid="{61E12945-E188-473E-B902-3670EF5CEC05}" name="Fecha"/>
     <tableColumn id="3" xr3:uid="{50B0BB62-BB24-4AD0-B433-4DE95AFF0683}" name="Cantidad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1140,202 +1160,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D464927-8A0E-43A1-8E3F-A39650D0792F}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="1" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="E2">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="3">
+        <v>108.11301850243804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="3">
-        <v>108.11301850243804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>98.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>97.443525322427121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>107.41199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="C3">
-        <v>98.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>102.12489444633465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="C4">
-        <v>97.443525322427121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="C5">
-        <v>107.41199999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="C6">
-        <v>102.12489444633465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>75.900000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="C9">
-        <v>87.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10">
-        <v>93.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15">
+      <c r="F15">
         <v>80.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16">
+        <v>64</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>2015</v>
+      </c>
+      <c r="F16">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17">
+        <v>64</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>2015</v>
+      </c>
+      <c r="F17">
         <v>420</v>
       </c>
     </row>

--- a/PANAMÁ/Género/Datos mujer Unicef 2017 Panamá.xlsx
+++ b/PANAMÁ/Género/Datos mujer Unicef 2017 Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD31C6F-02F5-4F2B-B3D0-0C2C4BF22B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E00B83-C1DB-4B5A-BCF8-BF03FA8A9736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C02BFD1-9736-4D22-8B47-100FDC63AB98}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{9C02BFD1-9736-4D22-8B47-100FDC63AB98}"/>
   </bookViews>
   <sheets>
     <sheet name="(Original) Datos mujer 2017" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t xml:space="preserve">
 Esperanza de vida: mujeres como % de hombres 2016</t>
@@ -489,45 +489,18 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Esperanza de vida:</t>
-  </si>
-  <si>
-    <t>Tasa de alfabetización de adultos:</t>
-  </si>
-  <si>
-    <t>Ratios de matrícula:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa de supervivencia hasta el último grado de primaria: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demanda de planificación familiar satisfecha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuidado prenatal (%): </t>
-  </si>
-  <si>
     <t>Atención al parto (%):</t>
   </si>
   <si>
     <t>Control de salud posparto (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Razón de mortalidad materna † </t>
-  </si>
-  <si>
-    <t>Sub Categoría</t>
-  </si>
-  <si>
     <t>Sub Variable</t>
   </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>mujeres como % de hombres</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2011–2016*</t>
   </si>
   <si>
@@ -543,12 +516,6 @@
     <t>Secundaria</t>
   </si>
   <si>
-    <t>con métodos modernos (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al menos una visita</t>
-  </si>
-  <si>
     <t xml:space="preserve">Al menos cuatro visitas </t>
   </si>
   <si>
@@ -567,13 +534,148 @@
     <t>+ para madres</t>
   </si>
   <si>
-    <t xml:space="preserve"> Reportados</t>
-  </si>
-  <si>
-    <t>Ajustados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riesgo de por vida de muerte materna (1 en :) </t>
+    <t>Esperanza de vida (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Tasa de alfabetización de adultos (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Ratios de matrícula (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Tasa de supervivencia hasta el último grado de primaria (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos (%)</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal (%):</t>
+  </si>
+  <si>
+    <t>Al menos una visita</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna</t>
+  </si>
+  <si>
+    <t>† Reportados</t>
+  </si>
+  <si>
+    <t>† Ajustados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">† Riesgo de por vida de muerte materna (1 en :) </t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>– Datos no disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x Datos refieren a años o períodos distintos a los que se especifican en el título de las columnas. Esos datos no son incluidos en los cálculos de promedios regionales o globales. Datos de años anteriores al 2000 no son mostrados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + El método de recolección de datos para este indicador varía en las diferentes encuestas y puede afectar la comparabilidad de los estimados de cobertura. Para una explicación más detallada ver Nota General en el Data, página XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">† Los datos de mortalidad materna en la columna titulada "reportados" refieren a datos reportados por las autoridades nacionales. Los datos en la columna de "ajustados" refieren a  los estimados de mortalidad materna de Inter-Agencias de las Naciones Unidas en 2015. Periódicamente, el Grupo de Estimación de Mortalidad Materna de las Inter-Agencias de las Naciones Unidas (OMS, UNICEF, UNFPA, Banco Mundial y la División de Población de las Naciones Unidas) producde sets internacionalmente comparables de datos de mortalidad materna que reflejan el problema de la falta de reporte y la clasificación errónea de muertes maternales, incluyendo también estimados para países que no tienen datos. Por favor observe que dada una metodología en evolución,  estos valores no son comparables con los valores "ajustados" de reportes anteriores sobre mortalidad maternal. Series de tiempo comparables para los años 1990, 1995, 2000, 2005 y 2015 están disponibles en  &lt; http://data.unicef.org/maternal-health/maternal-mortality.html&gt;.  </t>
+  </si>
+  <si>
+    <t>* Datos refieren al año disponible más reciente durante el período especificado en el título de las columnas</t>
+  </si>
+  <si>
+    <t>** Excluye China</t>
+  </si>
+  <si>
+    <t>‡ Excluye India</t>
+  </si>
+  <si>
+    <t>Definiciones de los indicadores:</t>
+  </si>
+  <si>
+    <t>Expectativa de vida: número de años que recién nacidos vivirían si estuvieran sujetos a los riesgos de mortalidad que prevalecen para la sección transversal de la población al momento de su nacimiento.</t>
+  </si>
+  <si>
+    <t>Tasa de alfabetización de adultos: porcentaje de la población de 15 años y más que pueden leer y escribir, entendiendo una declaración corta y simple sobre su vida cotidiana.</t>
+  </si>
+  <si>
+    <t>Tasa bruta de matriculación en primaria: matriculación total en la escuela primaria, sin importar la edad, expresada como el porcentaje de la población oficial en edad de ir a primaria</t>
+  </si>
+  <si>
+    <t>Tasa bruta de matriculación en secundaria: matriculación total en la escuela primaria, sin importar la edad, expresada como el porcentaje de la población oficial en edad de ir a secundaria</t>
+  </si>
+  <si>
+    <t>Tasa de supervivencia hasta el último grado de primaria: porcentaje de niños entrando al primer años de primaria que eventualmente alcalzan el útltimo año (datos administrativos)</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos: porcentaje de mujeres en edad reproductiva (15-49 años) que satisfacen sus necesidades de planificación familiar con métodos modernos</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal: porcentaje de mujeres de 15-49 años atendidas al menos una vez durante el embarazo por personal de salud experto (doctor, enfermera o matrona) y el porcentaje atendido por cualquier proveedor al menos 4 veces</t>
+  </si>
+  <si>
+    <t>Asistente de parto calificado: porcentaje de nacimientos atendidos por personal de salud experto (doctor, enfermera, matrona)</t>
+  </si>
+  <si>
+    <t>Parto en institución: porcentaje de mujeres de 15-49 años que dieron a luz en un establecimiento de salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesárea: porcentaje de nacimientos realizados por cesárea. </t>
+  </si>
+  <si>
+    <t>Control de salud pospartos para recién nacidos: porcentaje de los últimos nacidos vivos en los últimos 2 años que recibieron un chequeo médico dentro de los 2 días posteriores al parto. Chequeo de salud se refiere a un chequeo de salud mientras se encuentra en el centro de salud o en el hogar después del parto o una visita posnatal.</t>
+  </si>
+  <si>
+    <t>Control de salud pospartos para madres: Porcentaje de mujeres de 15 a 49 años que recibieron un chequeo médico dentro de los 2 días posteriores al parto de su hijo vivo más reciente en los últimos 2 años. Chequeo de salud se refiere a un chequeo de salud mientras se encuentra en el centro de salud o en el hogar después del parto o una visita posnatal.</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna: Número de muertes de mujeres por causas relacionadas con el embarazo por cada 100.000 nacidos vivos durante el mismo período. La columna "reportados" muestra las cifras informadas por los países que no son ajustadas por falta de información y clasificación errónea. Para la columna "ajustados", consulte la nota de (†). Los valores de la razón de mortalidad materna se han redondeado de acuerdo con el siguiente esquema: Informado: &lt;100, sin redondeo; 100–999, redondeado a la decena más cercana; y&gt; 1000, redondeado al 100 más cercano. Ajustado: &lt;1000, redondeado al 1 más cercano; y ≥ 1000, redondeado a la decena más cercana.</t>
+  </si>
+  <si>
+    <t>Riesgo de por vida de mortalidad materna: El riesgo de muerte materna a lo largo de la vida tiene en cuenta tanto la probabilidad de quedar embarazada como la probabilidad de morir como resultado de ese embarazo, acumulada a lo largo de los años reproductivos de la mujer. Los valores de riesgo de por vida se han redondeado de acuerdo con el siguiente esquema: &lt;1000, redondeado al 1 más cercano; y ≥ 1000, redondeado a la decena más cercana.</t>
+  </si>
+  <si>
+    <t>Principales fuentes de datos:</t>
+  </si>
+  <si>
+    <t>Expectativa de vida: United Nations Population Division.</t>
+  </si>
+  <si>
+    <t>Alfabetización en adultos: UNESCO Institute for Statistics (UIS).</t>
+  </si>
+  <si>
+    <t>Matriculación en primaria y secundaria: UIS.</t>
+  </si>
+  <si>
+    <t>Tasa de supervivencia hasta el último grado de primaria: UIS.</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos: SDG Global Database based on Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS), Reproductive Health Surveys, other national surveys, National Health Information Systems (HIS).</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal: DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Atención al parto calificada: Joint UNICEF/WHO SBA database, November 2017 update, based on DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Parto en institución: DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Cesárea: DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Control posparto para recién nacidos y madres: DHS and MICS.</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna (reportados): Nationally representative sources, including household surveys and vital registration.</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna (ajustados): United Nations Maternal Mortality Estimation Inter-agency Group (WHO, UNICEF, UNFPA, The World Bank and the United Nations Population Division).</t>
+  </si>
+  <si>
+    <t>Riesgo de por vida de mortalidad materna: United Nations Maternal Mortality Estimation Inter-agency Group (WHO, UNICEF, UNFPA, The World Bank and the United Nations Population Division).</t>
   </si>
 </sst>
 </file>
@@ -583,7 +685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +733,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -661,7 +771,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -688,9 +798,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -708,7 +815,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,11 +841,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DE6122E-59E6-4C0A-9DE5-E70F976857FF}" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17" xr:uid="{0FE6C47E-A4AA-471B-A651-46FD109D6DDA}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DE6122E-59E6-4C0A-9DE5-E70F976857FF}" name="Tabla1" displayName="Tabla1" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17" xr:uid="{0FE6C47E-A4AA-471B-A651-46FD109D6DDA}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA31ADE4-4227-4449-9AAA-1C1B46A4B902}" name="Categoría"/>
-    <tableColumn id="4" xr3:uid="{6D9B6CF7-1508-4E96-9F6F-F84DDBC6F671}" name="Sub Categoría"/>
     <tableColumn id="2" xr3:uid="{F46876B9-A105-42BA-A172-BA850DFA63A5}" name="Variable" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{09447A5E-4197-446D-AB23-01A76BBA9C3E}" name="Sub Variable"/>
     <tableColumn id="6" xr3:uid="{61E12945-E188-473E-B902-3670EF5CEC05}" name="Fecha"/>
@@ -1107,7 +1213,7 @@
       <c r="A2" s="3">
         <v>108.11301850243804</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>98.71</v>
       </c>
       <c r="C2" s="3">
@@ -1160,276 +1266,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D464927-8A0E-43A1-8E3F-A39650D0792F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="50.85546875" customWidth="1"/>
-    <col min="3" max="5" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="3">
+        <v>108.11301850243804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>98.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>97.443525322427121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>107.41199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>102.12489444633465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="E2">
-        <v>2016</v>
-      </c>
-      <c r="F2" s="3">
-        <v>108.11301850243804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="E3" t="s">
+      <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="F3">
-        <v>98.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>97.443525322427121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5">
-        <v>107.41199999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6">
-        <v>102.12489444633465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7">
-        <v>75.900000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9">
-        <v>87.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E13">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="F10">
-        <v>93.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="D16">
+        <v>2015</v>
+      </c>
+      <c r="E16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16">
+      <c r="D17">
         <v>2015</v>
       </c>
-      <c r="F16">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E17">
-        <v>2015</v>
-      </c>
-      <c r="F17">
         <v>420</v>
       </c>
     </row>
@@ -1443,15 +1523,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C663659-DDF9-47A2-8B4E-231BA87F2AFB}">
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AA39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1465,24 +1545,17 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="L1" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="M1" s="9"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1496,25 +1569,18 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
       <c r="M2" s="9"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="8"/>
@@ -1527,25 +1593,18 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="8"/>
@@ -1558,55 +1617,41 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1620,24 +1665,17 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1651,25 +1689,18 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="8"/>
@@ -1682,24 +1713,17 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1718,18 +1742,9 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="8"/>
@@ -1742,25 +1757,18 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="8"/>
@@ -1773,25 +1781,18 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="8"/>
@@ -1804,25 +1805,18 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8"/>
@@ -1835,25 +1829,18 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" t="s">
+        <v>93</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="8"/>
@@ -1866,25 +1853,18 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="L14" t="s">
+        <v>94</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="8"/>
@@ -1897,25 +1877,18 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="8"/>
@@ -1928,25 +1901,18 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="8"/>
@@ -1959,25 +1925,18 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="L17" t="s">
+        <v>97</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="8"/>
@@ -1990,25 +1949,18 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="8"/>
@@ -2021,25 +1973,18 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8"/>
@@ -2052,25 +1997,18 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="8"/>
@@ -2083,25 +2021,18 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="L21" t="s">
+        <v>101</v>
+      </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="8"/>
@@ -2114,25 +2045,18 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="L22" t="s">
+        <v>102</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="8"/>
@@ -2145,25 +2069,18 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="L23" t="s">
+        <v>103</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="8"/>
@@ -2176,25 +2093,18 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="L24" t="s">
+        <v>104</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2212,18 +2122,9 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="8"/>
@@ -2236,25 +2137,18 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="8"/>
@@ -2267,25 +2161,18 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="L27" t="s">
+        <v>106</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="8"/>
@@ -2298,25 +2185,18 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="L28" t="s">
+        <v>107</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="8"/>
@@ -2329,25 +2209,18 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="L29" t="s">
+        <v>108</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="8"/>
@@ -2360,25 +2233,18 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="L30" t="s">
+        <v>109</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="8"/>
@@ -2391,25 +2257,18 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="L31" t="s">
+        <v>110</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="8"/>
@@ -2422,25 +2281,18 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="L32" t="s">
+        <v>111</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="8"/>
@@ -2453,25 +2305,18 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="L33" t="s">
+        <v>112</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="8"/>
@@ -2484,25 +2329,18 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" t="s">
+        <v>113</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="8"/>
@@ -2515,25 +2353,18 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="L35" t="s">
+        <v>114</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="8"/>
@@ -2546,25 +2377,18 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="L36" t="s">
+        <v>115</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="8"/>
@@ -2577,25 +2401,18 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="L37" t="s">
+        <v>116</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="8"/>
@@ -2608,25 +2425,18 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="L38" t="s">
+        <v>117</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="8"/>
@@ -2639,27 +2449,17 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="L39" t="s">
+        <v>118</v>
+      </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:AA5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>